--- a/Resources/Book2.xlsx
+++ b/Resources/Book2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fareenamughal/Desktop/BOOTCAMP 20220822/Credit_Risk_Analysis/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7C880A-79AE-1D41-83FC-089DD2F3888D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97BD5F1-71E1-AA42-AC68-3CA2B8243CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="20980" windowHeight="17440" xr2:uid="{6B94834A-349A-A84B-A7F5-4349EF15411D}"/>
+    <workbookView xWindow="12240" yWindow="5100" windowWidth="25800" windowHeight="16000" activeTab="1" xr2:uid="{6B94834A-349A-A84B-A7F5-4349EF15411D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$4:$H$16</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Naïve Random Oversampling</t>
   </si>
@@ -630,6 +631,21 @@
   </si>
   <si>
     <t>Column5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMMARY OF THE OUTCOMES OF VARIOUS MACHINE LEARNING MODELS </t>
+  </si>
+  <si>
+    <t>Balanced accuracy score</t>
+  </si>
+  <si>
+    <t>Confusion matrix</t>
+  </si>
+  <si>
+    <t>Imbalanced classification report</t>
+  </si>
+  <si>
+    <t>BALANCED RANDOM FOREST CLASSIFIER</t>
   </si>
 </sst>
 </file>
@@ -640,7 +656,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -649,6 +665,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -704,7 +728,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,6 +738,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,22 +761,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -912,6 +944,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4016196D-3B90-5C7C-0F16-B8FD3EE3B44B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="609600"/>
+          <a:ext cx="2146300" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EC3BB7-F627-61DE-6172-E03680F9D1CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1625600"/>
+          <a:ext cx="4775200" cy="1308100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>199442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FAE360-5E77-6F3B-995C-1DEB12851397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="406400"/>
+          <a:ext cx="7772400" cy="4263442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE462B6-72EB-A9C0-B1D0-15AAB00B2B8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="254000"/>
+          <a:ext cx="7772400" cy="4263442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1233,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95622DD-CF8E-3849-83CC-3B0B1893CECD}">
   <dimension ref="A2:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,13 +1458,15 @@
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
     <col min="9" max="9" width="21" hidden="1" customWidth="1"/>
     <col min="10" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="23" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:20" s="7" customFormat="1" ht="44" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1745,11 +1960,359 @@
     <mergeCell ref="S39:S42"/>
     <mergeCell ref="S43:S44"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F58CF2-7BA0-9B44-A300-C52521D1E944}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>